--- a/SuppXLS/Scen_DemProj_Middleroad.xlsx
+++ b/SuppXLS/Scen_DemProj_Middleroad.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{C8608A19-B230-46BD-B759-F7486BA4668A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A4F76F-AF1D-426E-84F4-AB7750E138C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0C1B9-9C6D-432F-A4A2-F0888A70EAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
-    <sheet name="CAR_Dem" sheetId="2" r:id="rId2"/>
+    <sheet name="MANENERGY_Dem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -853,17 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -920,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -940,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -971,27 +971,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0.17549079569250248</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9.4822485813413682E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
